--- a/DATA/Stats.xlsx
+++ b/DATA/Stats.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/nicolas_van_vlasselaer_vub_be/Documents/Github/photogrammetry/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{A368B6CE-BC2F-7941-92A0-A9460B74E43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03F30423-508B-D54D-A18D-0B9230FB1660}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{A368B6CE-BC2F-7941-92A0-A9460B74E43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ECD8AC7-3AEC-B54D-9564-EB61943F47DF}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{65AAAE27-5AAD-1848-9A39-6F8FE8569522}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>Surface Area</t>
   </si>
@@ -81,6 +81,27 @@
   </si>
   <si>
     <t>Condition</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>colmap filter</t>
+  </si>
+  <si>
+    <t>colmap no filter</t>
+  </si>
+  <si>
+    <t>OC filter</t>
+  </si>
+  <si>
+    <t>oc no filter</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Mean vol</t>
   </si>
 </sst>
 </file>
@@ -436,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1BBCC7-58B9-384F-B785-DCC0FB967D97}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K1:K20"/>
+      <selection activeCell="L2" sqref="L2:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,7 +476,7 @@
     <col min="12" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -486,8 +507,14 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -500,8 +527,19 @@
       <c r="D2">
         <v>12772.154417</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(C2,C7,C12,C17,C22,C27)</f>
+        <v>5210.6203206666669</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE(D2,D7,D12,D17,D22,D27)</f>
+        <v>10737.093496833333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -532,8 +570,19 @@
       <c r="J3">
         <v>8.3108000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(C3,C8,C13,C18,C23,C28)</f>
+        <v>5715.2911378333329</v>
+      </c>
+      <c r="M3">
+        <f>AVERAGE(D3,D8,D13,D18,D23,D28)</f>
+        <v>10163.064346249999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -564,8 +613,19 @@
       <c r="J4">
         <v>8.0976999999999993E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <f>AVERAGE(C4,C9,C14,C19,C24,C29)</f>
+        <v>5703.3427734166662</v>
+      </c>
+      <c r="M4">
+        <f>AVERAGE(D4,D9,D14,D19,D24,D29)</f>
+        <v>10273.018084166666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -596,8 +656,19 @@
       <c r="J5">
         <v>8.3474999999999994E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <f>AVERAGE(C5,C10,C15,C20,C25,C30)</f>
+        <v>5536.182332166667</v>
+      </c>
+      <c r="M5">
+        <f>AVERAGE(D5,D10,D15,D20,D25,D30)</f>
+        <v>10322.852977666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -628,8 +699,19 @@
       <c r="J6">
         <v>7.4171000000000001E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6">
+        <f>AVERAGE(C6,C11,C16,C21,C26,C31)</f>
+        <v>5495.7801105833323</v>
+      </c>
+      <c r="M6">
+        <f>AVERAGE(D6,D11,D16,D21,D26,D31)</f>
+        <v>10405.664308916666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -643,7 +725,7 @@
         <v>13726.541808</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -675,7 +757,7 @@
         <v>6.3577999999999996E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -707,7 +789,7 @@
         <v>5.6129999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -739,7 +821,7 @@
         <v>6.9537000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -771,7 +853,7 @@
         <v>5.5289999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -785,7 +867,7 @@
         <v>6376.4575340000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -817,7 +899,7 @@
         <v>9.0773999999999994E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -849,7 +931,7 @@
         <v>9.4122999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -881,7 +963,7 @@
         <v>9.5158000000000006E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
